--- a/studies/siegmund-2012-toward-measuring-comprehension/data/dataset-siegmund-2012.xlsx
+++ b/studies/siegmund-2012-toward-measuring-comprehension/data/dataset-siegmund-2012.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utilisateur/Documents/these/studies/cpx/studies/siegmund-2012-toward-measuring-comprehension/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1998F3EC-E5E0-7C4B-83D6-664C594106CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC3BB6C-FE7A-2343-8397-C0CAE1DABD4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35840" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5627,9 +5627,9 @@
   <sheetPr published="0"/>
   <dimension ref="A1:EM94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M63" sqref="M63"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="CI36" sqref="CI36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5651,7 +5651,9 @@
     <col min="90" max="90" width="21.6640625" style="23" customWidth="1"/>
     <col min="91" max="113" width="10.83203125" style="23" customWidth="1"/>
     <col min="114" max="114" width="34.6640625" style="23" customWidth="1"/>
-    <col min="115" max="134" width="10.83203125" style="23" customWidth="1"/>
+    <col min="115" max="120" width="10.83203125" style="23" customWidth="1"/>
+    <col min="121" max="121" width="51.33203125" style="23" customWidth="1"/>
+    <col min="122" max="134" width="10.83203125" style="23" customWidth="1"/>
     <col min="135" max="137" width="10.83203125" style="23"/>
     <col min="138" max="138" width="21.83203125" style="23" customWidth="1"/>
     <col min="139" max="16384" width="10.83203125" style="23"/>
@@ -8103,7 +8105,7 @@
       <c r="DP6" s="23">
         <v>100</v>
       </c>
-      <c r="DQ6" s="23" t="s">
+      <c r="DQ6" s="28" t="s">
         <v>136</v>
       </c>
       <c r="DR6" s="23">
@@ -13189,7 +13191,7 @@
       <c r="K19" s="23">
         <v>4</v>
       </c>
-      <c r="L19" s="23" t="s">
+      <c r="L19" s="28" t="s">
         <v>411</v>
       </c>
       <c r="M19" s="23" t="s">
